--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71712.37702074501</v>
+        <v>-74193.29684620352</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335567</v>
+        <v>40.71072521252469</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851355</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545852</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663272</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>199.7267596008781</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579964</v>
+        <v>14.65678318579946</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717757</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913428</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594429</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>33.45433242887995</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271178</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.75870499835645</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184866</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>61.67577209757047</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579946</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104944</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T14" t="n">
-        <v>5.819330784320925</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.59848849117265</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>88.44202534652209</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477343</v>
+        <v>3.974324134331255</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816013</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245674</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
@@ -1901,16 +1901,16 @@
         <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.2743297342854</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290874</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249326</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085007</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330913</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860169</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I19" t="n">
-        <v>22.457137204119</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432823</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948569</v>
       </c>
       <c r="V19" t="n">
-        <v>240.6420543130729</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2090,10 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>336.9550866703245</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T20" t="n">
-        <v>9.362935956138593</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.43656365929147</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654133</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531829</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2494,7 +2494,7 @@
         <v>70.85973170860176</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432832</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>208.0533602654128</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782814</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514547</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,10 +2776,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,16 +3193,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124554</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>230.7340562419014</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>205.4124289181738</v>
       </c>
       <c r="W37" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.5621008705229</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>90.95618068285779</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>163.106871388383</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>111.7690391349166</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>89.27723295060981</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420289</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>111.7690391349166</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>230.7340562419018</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2086.175636341439</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1744.405186660751</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="D11" t="n">
-        <v>1413.331555313724</v>
+        <v>1098.1850492983</v>
       </c>
       <c r="E11" t="n">
-        <v>1054.735369975204</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="F11" t="n">
-        <v>670.9415324453198</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0611495500398</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299116</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5042,7 +5042,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,13 +5051,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.267412142731</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2795.396592058883</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2795.396592058883</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2449.122901057527</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2086.175636341439</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,46 +5106,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.5255757144331</v>
+        <v>451.901830575648</v>
       </c>
       <c r="C13" t="n">
-        <v>533.7814600462498</v>
+        <v>310.1577149074648</v>
       </c>
       <c r="D13" t="n">
-        <v>410.8568878936376</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E13" t="n">
-        <v>290.135861570968</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>170.4379813327812</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402567</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058533</v>
+        <v>2111.452912090497</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145083</v>
+        <v>1946.959095177047</v>
       </c>
       <c r="T13" t="n">
-        <v>1976.008292145083</v>
+        <v>1752.384547006297</v>
       </c>
       <c r="U13" t="n">
-        <v>1714.09749253045</v>
+        <v>1490.473747391664</v>
       </c>
       <c r="V13" t="n">
-        <v>1486.605071584287</v>
+        <v>1262.981326445501</v>
       </c>
       <c r="W13" t="n">
-        <v>1224.37996880705</v>
+        <v>1000.756223668264</v>
       </c>
       <c r="X13" t="n">
-        <v>1023.582485168756</v>
+        <v>799.9587400299705</v>
       </c>
       <c r="Y13" t="n">
-        <v>829.9819732849493</v>
+        <v>606.358228146164</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1538.552971876556</v>
+        <v>1502.254258673504</v>
       </c>
       <c r="C14" t="n">
-        <v>1196.782522195868</v>
+        <v>1160.483808992816</v>
       </c>
       <c r="D14" t="n">
-        <v>1196.782522195868</v>
+        <v>1098.1850492983</v>
       </c>
       <c r="E14" t="n">
-        <v>838.186336857347</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3924993274632</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218357</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218357</v>
+        <v>81.31694793299097</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810558</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052369</v>
@@ -5306,22 +5306,22 @@
         <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3236.629108492636</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3236.629108492636</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2932.758288408789</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2607.181700398398</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2260.908009397042</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1897.960744680954</v>
+        <v>1861.662031477902</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>645.444844457134</v>
+        <v>418.3126375609372</v>
       </c>
       <c r="C16" t="n">
-        <v>645.444844457134</v>
+        <v>276.568521892754</v>
       </c>
       <c r="D16" t="n">
-        <v>522.5202723045219</v>
+        <v>276.568521892754</v>
       </c>
       <c r="E16" t="n">
-        <v>401.7992459818524</v>
+        <v>155.8474955700846</v>
       </c>
       <c r="F16" t="n">
-        <v>282.1013657436657</v>
+        <v>155.8474955700846</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>155.8474955700846</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218343</v>
@@ -5434,13 +5434,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402573</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,37 +5449,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.502109058534</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1945.927560887783</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1684.01676127315</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.524340326987</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1194.29923754975</v>
+        <v>967.1670306535533</v>
       </c>
       <c r="X16" t="n">
-        <v>993.5017539114565</v>
+        <v>766.3695470152595</v>
       </c>
       <c r="Y16" t="n">
-        <v>799.90124202765</v>
+        <v>572.7690351314532</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.976134084841</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.655317352226</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>941.0313189532728</v>
+        <v>940.9592424104342</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8126900199869</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>293.4684854381763</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5531,10 +5531,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5549,16 +5549,16 @@
         <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281943</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.255963762463</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.43190570918</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.934273941165</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.121778987228</v>
+        <v>569.1217789872285</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671181</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625795</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879834</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604102</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
         <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356241</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454038</v>
+        <v>822.2794225454043</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096707</v>
+        <v>676.1285436096712</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666651</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>940.9592424104344</v>
       </c>
       <c r="E20" t="n">
-        <v>966.228971144636</v>
+        <v>629.8126900199875</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628255</v>
+        <v>629.8126900199875</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
@@ -5750,19 +5750,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3316.148310542365</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3316.148310542365</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.727123406591</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344274</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290991</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522976</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5835,7 +5835,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5932,10 +5932,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.075796917491</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952115</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
         <v>1584.906697729438</v>
@@ -5972,10 +5972,10 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.0946095349356</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.750404953125</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
@@ -5990,25 +5990,25 @@
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2463.83747557512</v>
       </c>
       <c r="O23" t="n">
-        <v>2648.229225364689</v>
+        <v>2966.809946454457</v>
       </c>
       <c r="P23" t="n">
         <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6026,13 +6026,13 @@
         <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714071</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902801</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.022053929029</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235734</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504585</v>
       </c>
       <c r="G24" t="n">
         <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094449</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
@@ -6072,7 +6072,7 @@
         <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061124</v>
+        <v>772.0173836061125</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6139,13 +6139,13 @@
         <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634007</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,25 +6166,25 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.927245478739</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119737</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259236</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
         <v>829.1450609357032</v>
@@ -6215,7 +6215,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644151</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2747.614403702933</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O26" t="n">
-        <v>3250.58687458227</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P26" t="n">
-        <v>3645.361240939448</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
@@ -6385,13 +6385,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,25 +6400,25 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
@@ -6452,37 +6452,37 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>2200.835586644151</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N29" t="n">
-        <v>2747.614403702933</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O29" t="n">
-        <v>3250.58687458227</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6497,7 +6497,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6616,28 +6616,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6692,22 +6692,22 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>875.9322461484385</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1326.966459396847</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058812</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N32" t="n">
         <v>2852.295579285458</v>
@@ -6719,16 +6719,16 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6774,31 +6774,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6874,34 +6874,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,31 +6920,31 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6953,7 +6953,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6962,25 +6962,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>698.2736995386226</v>
+        <v>500.9308303909361</v>
       </c>
       <c r="C37" t="n">
-        <v>628.0089511845591</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D37" t="n">
-        <v>477.8923117722234</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898302</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.120214357884</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.10716072584</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W37" t="n">
-        <v>1131.361425262723</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X37" t="n">
-        <v>903.3718743647057</v>
+        <v>706.0290052170192</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.250729795019</v>
+        <v>583.9078606473324</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,49 +7157,49 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
@@ -7208,13 +7208,13 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127575</v>
+        <v>599.6022649647795</v>
       </c>
       <c r="C40" t="n">
-        <v>670.642222158694</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D40" t="n">
-        <v>619.1970173202017</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E40" t="n">
-        <v>527.322087337517</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396066</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,16 +7351,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
         <v>1422.082050758175</v>
@@ -7369,13 +7369,13 @@
         <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388406</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691539</v>
+        <v>682.5792952211758</v>
       </c>
     </row>
     <row r="41">
@@ -7388,40 +7388,40 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,34 +7506,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389144</v>
+        <v>444.8926667912275</v>
       </c>
       <c r="C43" t="n">
-        <v>571.9707875848509</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>520.5255827463586</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>471.283923737809</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>324.3939762398986</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>156.6911396146176</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758175</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663015</v>
+        <v>877.9803925153279</v>
       </c>
       <c r="X43" t="n">
-        <v>946.0051453388407</v>
+        <v>649.9908416173106</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.8840007691541</v>
+        <v>527.8696970476238</v>
       </c>
     </row>
     <row r="44">
@@ -7631,67 +7631,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,34 +7743,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.6022649647789</v>
+        <v>444.8926667912275</v>
       </c>
       <c r="C46" t="n">
-        <v>430.666082036872</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>379.2208771983798</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898301</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1478.120214357883</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.10716072584</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W46" t="n">
-        <v>1131.361425262723</v>
+        <v>779.3089579414846</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647053</v>
+        <v>649.9908416173106</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.2507297950186</v>
+        <v>527.8696970476238</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430629</v>
+        <v>157.2353108430628</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729005</v>
+        <v>184.4039433729003</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389601</v>
+        <v>191.4948909389598</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333064</v>
+        <v>181.0856325333061</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830237</v>
+        <v>179.3553748830234</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383987</v>
+        <v>182.8301554383984</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586582</v>
+        <v>190.890803558658</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266122</v>
+        <v>192.010383626612</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875973</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372531</v>
+        <v>113.603122337253</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672271</v>
+        <v>105.962971867227</v>
       </c>
       <c r="M9" t="n">
-        <v>104.101398125359</v>
+        <v>104.1013981253588</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677626</v>
+        <v>92.30246558677604</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359733</v>
+        <v>106.8829608359731</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798322</v>
+        <v>105.311348779832</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615456</v>
+        <v>120.8212784615455</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564656</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085226</v>
+        <v>119.1996074085225</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140776</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530923</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662703</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8144253784346</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>18.01571720695233</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>306.6874953089243</v>
       </c>
       <c r="Q26" t="n">
-        <v>40.02214132148694</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>40.02214132148674</v>
+        <v>306.6874953089247</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>105.7385611944691</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>287.001785447392</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763543</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.0521698210318</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>67.96085819931568</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104952</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524939</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302867</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>105.651329243022</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271945</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292102</v>
+        <v>33.25330108456441</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890429</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>266.087122935986</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>171.1784927681728</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>43.50717318072919</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>29.39284298067224</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292093</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359923</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134032</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07135577740848476</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.07135577740990584</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>120.6597509777626</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>960600.8804767139</v>
+        <v>960600.8804767142</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>960600.8804767141</v>
+        <v>960600.8804767143</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>368674.3524226673</v>
       </c>
       <c r="C2" t="n">
-        <v>368674.3524226672</v>
+        <v>368674.3524226673</v>
       </c>
       <c r="D2" t="n">
-        <v>368684.4014126757</v>
+        <v>368684.4014126758</v>
       </c>
       <c r="E2" t="n">
-        <v>328293.0004072387</v>
+        <v>328293.0004072386</v>
       </c>
       <c r="F2" t="n">
         <v>328293.0004072387</v>
       </c>
       <c r="G2" t="n">
-        <v>357538.8695609419</v>
+        <v>357538.8695609417</v>
       </c>
       <c r="H2" t="n">
         <v>357538.8695609419</v>
       </c>
       <c r="I2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="J2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="K2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="L2" t="n">
         <v>369468.7964389276</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389278</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552328</v>
+        <v>59764.5536755236</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
-        <v>7.389644451905042e-11</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487416</v>
+        <v>37580.10929487388</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983346</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179686</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487417</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954649</v>
+        <v>430603.4278954648</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364963</v>
+        <v>40024.16194364978</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364971</v>
+        <v>40024.16194364976</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509204</v>
+        <v>77052.32230509201</v>
       </c>
       <c r="H4" t="n">
         <v>77052.32230509198</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754389</v>
+        <v>90617.51027754387</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.9551969959</v>
+        <v>88960.95519699578</v>
       </c>
       <c r="K4" t="n">
         <v>88960.95519699583</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699587</v>
+        <v>88960.95519699581</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="N4" t="n">
+        <v>92183.89891818169</v>
+      </c>
+      <c r="O4" t="n">
+        <v>92183.89891818175</v>
+      </c>
+      <c r="P4" t="n">
         <v>92183.89891818172</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92183.89891818177</v>
-      </c>
-      <c r="P4" t="n">
-        <v>92183.89891818177</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186637</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521491</v>
@@ -26488,28 +26488,28 @@
         <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117353.2381262979</v>
+        <v>-117357.651704166</v>
       </c>
       <c r="C6" t="n">
-        <v>-117353.238126298</v>
+        <v>-117357.651704166</v>
       </c>
       <c r="D6" t="n">
-        <v>-156832.4855901789</v>
+        <v>-156836.8433403248</v>
       </c>
       <c r="E6" t="n">
-        <v>-877539.6240648689</v>
+        <v>-877768.3784872672</v>
       </c>
       <c r="F6" t="n">
-        <v>211699.3480987625</v>
+        <v>211470.593676364</v>
       </c>
       <c r="G6" t="n">
-        <v>162387.7948357608</v>
+        <v>162321.5174642165</v>
       </c>
       <c r="H6" t="n">
-        <v>199967.904130635</v>
+        <v>199901.6267590907</v>
       </c>
       <c r="I6" t="n">
-        <v>170293.290029708</v>
+        <v>170293.2900297082</v>
       </c>
       <c r="J6" t="n">
-        <v>165720.4665453291</v>
+        <v>165720.466545329</v>
       </c>
       <c r="K6" t="n">
-        <v>191129.8995671257</v>
+        <v>191129.8995671258</v>
       </c>
       <c r="L6" t="n">
-        <v>153549.7902722515</v>
+        <v>153549.7902722517</v>
       </c>
       <c r="M6" t="n">
-        <v>-7401.799778228233</v>
+        <v>-7401.799778227913</v>
       </c>
       <c r="N6" t="n">
+        <v>194766.3002144963</v>
+      </c>
+      <c r="O6" t="n">
         <v>194766.3002144961</v>
       </c>
-      <c r="O6" t="n">
-        <v>194766.300214496</v>
-      </c>
       <c r="P6" t="n">
-        <v>194766.300214496</v>
+        <v>194766.3002144962</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H2" t="n">
         <v>73.89528320571902</v>
@@ -26707,25 +26707,25 @@
         <v>73.89528320571902</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859257</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790699</v>
+        <v>69.78465283790737</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26808,28 +26808,28 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810299</v>
+        <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951236</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790699</v>
+        <v>69.78465283790737</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-8.202073660032603e-15</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.211019349867127e-14</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104726</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780173</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672102</v>
+        <v>84.22861846672099</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698751</v>
+        <v>90.83829126987504</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519076</v>
+        <v>84.46220888519072</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990213</v>
+        <v>7.649035050990133</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317044</v>
+        <v>75.62456067317038</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U19" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="V19" t="n">
-        <v>11.49558901075505</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="20">
@@ -29004,13 +29004,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075586</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S22" t="n">
         <v>73.89528320571902</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="U22" t="n">
         <v>73.89528320571902</v>
@@ -29056,7 +29056,7 @@
         <v>73.89528320571902</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>73.89528320571902</v>
       </c>
       <c r="T25" t="n">
-        <v>11.49558901075636</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U25" t="n">
         <v>73.89528320571902</v>
@@ -29259,7 +29259,7 @@
         <v>73.89528320571902</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075579</v>
       </c>
       <c r="Y25" t="n">
         <v>73.89528320571902</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.9751366185908</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859159</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>55.47778196371152</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810494</v>
+        <v>46.72521440565419</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>55.47778196371138</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371181</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>55.47778196371124</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>55.47778196371097</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>55.47778196371124</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>55.47778196371107</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413344</v>
+        <v>0.280541317941336</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366692</v>
+        <v>2.873093772366708</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993331</v>
+        <v>10.81556915993336</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362335</v>
+        <v>23.81059368362348</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208005</v>
+        <v>35.68590767208024</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102717</v>
+        <v>44.27152403102741</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396637</v>
+        <v>49.26060069396664</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135672</v>
+        <v>50.05768871356747</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328804</v>
+        <v>47.26805598328831</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661135</v>
+        <v>40.34219219661157</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478373</v>
+        <v>30.29530624783747</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313236</v>
+        <v>17.62255356313246</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588164</v>
+        <v>6.3928352825882</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288192</v>
+        <v>1.228069619288199</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530675</v>
+        <v>0.02244330543530687</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.150102838179649</v>
+        <v>0.1501028381796498</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840295</v>
+        <v>1.449677410840303</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694056</v>
+        <v>5.168014384694085</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906938</v>
+        <v>14.18142647906946</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710587</v>
+        <v>24.238316637106</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264704</v>
+        <v>32.59140791264721</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665931</v>
+        <v>38.03263579665951</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655705</v>
+        <v>39.03924649655726</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847114</v>
+        <v>35.71328360847133</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449806</v>
+        <v>28.66305863449822</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.1604956244759</v>
+        <v>19.160495624476</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768035</v>
+        <v>9.319542882768086</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608829</v>
+        <v>2.788094384608845</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890236</v>
+        <v>0.6050197731890269</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345332</v>
+        <v>0.009875186722345388</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486847</v>
+        <v>0.1258411772486854</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811034</v>
+        <v>1.11884246681104</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078629</v>
+        <v>3.78438740307865</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482009</v>
+        <v>8.896971231482059</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489264</v>
+        <v>14.62045677489272</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477264</v>
+        <v>18.70915102477274</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908246</v>
+        <v>19.72617653908257</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115556</v>
+        <v>19.25713215115566</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875046</v>
+        <v>17.78707839875056</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287728</v>
+        <v>15.21991838287736</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852395</v>
+        <v>10.53748257852401</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381768</v>
+        <v>5.658276933381799</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233896</v>
+        <v>2.193068516233908</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625619</v>
+        <v>0.5376850300625649</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564629</v>
+        <v>0.006864064213564667</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,10 +34205,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34217,28 +34217,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019254</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546664</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573247</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>878.7355412086614</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>526.0687180951713</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359774</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>705.4494815282961</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.8164461252064</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36768,10 +36768,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637012</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>438.7841275408584</v>
+        <v>705.4494815282966</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120754</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>442.9298477498696</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>825.9229012776185</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222526</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37865,19 +37865,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
